--- a/shoping_config.xlsx
+++ b/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dingDing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\多米诺表格Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -207,26 +207,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>shop_goods_jing_bi1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_goods_jing_bi2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_goods_jing_bi3</t>
-  </si>
-  <si>
-    <t>shop_goods_jing_bi4</t>
-  </si>
-  <si>
-    <t>shop_goods_jing_bi5</t>
-  </si>
-  <si>
-    <t>shop_goods_jing_bi6</t>
-  </si>
-  <si>
     <t>id|ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -241,6 +221,26 @@
   <si>
     <t>jing_bi</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_icon_jb01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_icon_jb02</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_icon_jb03</t>
+  </si>
+  <si>
+    <t>cc_icon_jb04</t>
+  </si>
+  <si>
+    <t>cc_icon_jb05</t>
+  </si>
+  <si>
+    <t>cc_icon_jb06</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -673,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1">
         <v>5000</v>
@@ -741,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -749,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1">
         <v>10000</v>
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
         <v>30000</v>
@@ -811,7 +811,7 @@
         <v>24</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -819,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
         <v>60000</v>
@@ -846,7 +846,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -854,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>250000</v>
@@ -881,7 +881,7 @@
         <v>26</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1">
         <v>500000</v>
@@ -916,7 +916,7 @@
         <v>27</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/shoping_config.xlsx
+++ b/shoping_config.xlsx
@@ -5,15 +5,24 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\多米诺表格Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="goods|商品表" sheetId="1" r:id="rId1"/>
+    <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
+    <sheet name="goods|商品表" sheetId="1" r:id="rId2"/>
+    <sheet name="gift_bag|礼包" sheetId="7" r:id="rId3"/>
+    <sheet name="gift_bag_condition|礼包条件" sheetId="9" r:id="rId4"/>
+    <sheet name="jing_bi|购买鲸币" sheetId="4" r:id="rId5"/>
+    <sheet name="item|购买道具" sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'gift_bag|礼包'!$A$1:$AM$614</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jing_bi|购买鲸币'!$A$1:$AC$25</definedName>
+  </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -44,7 +53,230 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-对应GooglePly的支付项</t>
+jing_bi工作表中ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个人用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+APPSTORE支持的档次</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个人用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+首次购买额外赠送的礼包ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Darien</author>
+    <author>个人用户</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Darien:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+模板礼包配置仅修改开关和礼包时间即可</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Darien:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+valid_time有效期，数值按秒计算，小于三年视为相对时间计算，大于三年视为绝对时间点计算</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>86400（秒），1，1（小时） （每1天，购买1次，1点重置）
+时间段，次数，重置时间点
+9999999999,1,0  只能购买一次
+86400,1,6  每天购买一次，6点重置
+86400,1,0  每天购买一次，0点重置
+5，1，0    没有购买限制</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个人用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+部分礼包需要满足条件才能购买，如限时特惠
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>个人用户</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个人用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对应goods中钻石档次</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>个人用户</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个人用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+同类型的道具不重复即可</t>
         </r>
       </text>
     </comment>
@@ -53,14 +285,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
+  <si>
+    <t>line_id|行号</t>
+  </si>
+  <si>
+    <t>id|</t>
+  </si>
+  <si>
+    <t>platform|平台类型</t>
+  </si>
+  <si>
+    <t>type|物品类型</t>
+  </si>
+  <si>
+    <t>name|任务名称</t>
+  </si>
+  <si>
+    <t>icon_image|图标名称</t>
+  </si>
+  <si>
+    <t>is_new_tag|使用新标签</t>
+  </si>
+  <si>
+    <t>order_id|排序id</t>
+  </si>
+  <si>
+    <t>is_show|是否在比赛列表中显示</t>
+  </si>
+  <si>
+    <t>jing_bi</t>
+  </si>
+  <si>
+    <t>id|购买项的唯一编号，和客户端 ui 配置对应</t>
+  </si>
+  <si>
+    <t>convert_id|兑换的鲸币对应的id</t>
+  </si>
   <si>
     <t>product_id|appstore的产品id</t>
   </si>
   <si>
+    <t>gift_id|首冲对应购买的礼包的id</t>
+  </si>
+  <si>
+    <t>shop_type</t>
+  </si>
+  <si>
+    <t>price|价格：人民币，单位：分</t>
+  </si>
+  <si>
     <t>buy_asset_type|购买财富类型；包括道具。支持多个</t>
   </si>
   <si>
+    <t>buy_asset_count|购买财富数量</t>
+  </si>
+  <si>
+    <t>gift_asset_type|赠送财富类型；包括道具。支持多个</t>
+  </si>
+  <si>
+    <t>gift_asset_count|赠送财富数量</t>
+  </si>
+  <si>
+    <t>type|道具类型</t>
+  </si>
+  <si>
+    <t>group_id|分组id</t>
+  </si>
+  <si>
+    <t>gzh_order|公众号排序</t>
+  </si>
+  <si>
+    <t>gzh_show|公众号显示</t>
+  </si>
+  <si>
+    <t>web_show|网页充值显示</t>
+  </si>
+  <si>
     <t>is_show|是否需要显示</t>
   </si>
   <si>
@@ -70,21 +371,250 @@
     <t>ui_title|ui抬头</t>
   </si>
   <si>
+    <t>ui_givedesc|ui额外赠送</t>
+  </si>
+  <si>
+    <t>ui_describe|物品描述</t>
+  </si>
+  <si>
     <t>ui_price|价格</t>
   </si>
   <si>
     <t>ui_icon|物品icon</t>
   </si>
   <si>
+    <t>ui_icon_bg|icon背景</t>
+  </si>
+  <si>
+    <t>ui_discount|折扣</t>
+  </si>
+  <si>
+    <t>ui_gift|礼包</t>
+  </si>
+  <si>
+    <t>wx_pay|微信支付是否启用，0不启用，1启用，2启用但不支持购买</t>
+  </si>
+  <si>
+    <t>zfb_pay|微信支付是否启用，0不启用，1启用，2启用但不支持购买</t>
+  </si>
+  <si>
+    <t>wx_pay_desc|微信启用但不支持购买的提示</t>
+  </si>
+  <si>
+    <t>zfb_pay_desc|微信启用但不支持购买的提示</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>nil,</t>
+  </si>
+  <si>
     <t>"jing_bi",</t>
   </si>
   <si>
+    <t>id|同商品表一致，不能重复</t>
+  </si>
+  <si>
+    <t>jingbi_id|对应的商品id</t>
+  </si>
+  <si>
+    <t>on_off|开关</t>
+  </si>
+  <si>
+    <t>content|公众号描述</t>
+  </si>
+  <si>
+    <t>task_id|礼包任务</t>
+  </si>
+  <si>
+    <t>count|礼包总量</t>
+  </si>
+  <si>
+    <t>start_time|开始时间</t>
+  </si>
+  <si>
+    <t>end_time|有效期(0-无限期)</t>
+  </si>
+  <si>
+    <t>condition|触发条件</t>
+  </si>
+  <si>
+    <t>random_asset_type|随机的资产类型</t>
+  </si>
+  <si>
+    <t>random|随机奖励，实际</t>
+  </si>
+  <si>
+    <t>random_ui|随机奖励，显示的</t>
+  </si>
+  <si>
+    <t>reset_time|重置时间，间隔多久重置</t>
+  </si>
+  <si>
+    <t>reset_num|重置次数，总计可重置的次数</t>
+  </si>
+  <si>
+    <t>|购买限制说明0 只能买一次(默认)1 每天只能买一次(6点重置)2无限制 3每月（30天）买一次4 每天只能买一次(0点重置)</t>
+  </si>
+  <si>
+    <t>is_cg|是否是常规礼包</t>
+  </si>
+  <si>
+    <t>cg_order|常规礼包排序</t>
+  </si>
+  <si>
+    <t>Lua|礼包对应的脚本</t>
+  </si>
+  <si>
+    <t>id|不能重复</t>
+  </si>
+  <si>
+    <t>condition_group|条件组</t>
+  </si>
+  <si>
+    <t>limit|激活次数</t>
+  </si>
+  <si>
+    <t>duration|持续时长，秒</t>
+  </si>
+  <si>
+    <t>|time="xxxx"注释</t>
+  </si>
+  <si>
+    <t>line_id|行号，购买项的唯一编号，和客户端 ui 配置对应</t>
+  </si>
+  <si>
+    <t>goods_id|买钻石额度</t>
+  </si>
+  <si>
+    <t>use_type|消耗的财物类型</t>
+  </si>
+  <si>
+    <t>use_count|需要消耗的数量</t>
+  </si>
+  <si>
+    <t>jing_bi|购买鲸币数量</t>
+  </si>
+  <si>
+    <t>num|购买鲸币数量</t>
+  </si>
+  <si>
+    <t>condition|礼包条件</t>
+  </si>
+  <si>
+    <t>num|数量</t>
+  </si>
+  <si>
+    <t>group|组</t>
+  </si>
+  <si>
+    <t>max|限额</t>
+  </si>
+  <si>
+    <t>condition|购买条件</t>
+  </si>
+  <si>
     <t>pay_title|支付标题，显示在支付渠道的购买确认页中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id|物品ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_limt|购买限制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_limt|购买限制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum_desc|福卡兑换提示</t>
+  </si>
+  <si>
+    <t>coupon_gift_id|优惠券礼包ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_title|名字，标题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>|说明</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_asset_attribute|针对不可叠加道具的属性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gift_asset_count|赠送财富数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（已废弃）</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gift_asset_type|赠送财富类型；包括道具。支持多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（已废弃）</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gift_asset_attribute|赠送捕鱼道具的属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（已废弃）</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>condi|权限</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>price|价格：印尼盾</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -101,14 +631,14 @@
       </rPr>
       <t>0M Koin</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>60M Koin</t>
   </si>
   <si>
     <t>200M Koin</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>400M Koin</t>
@@ -134,27 +664,27 @@
       </rPr>
       <t>0M</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>60M</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>200M</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>400M</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2000M</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>4000M</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -171,7 +701,7 @@
       </rPr>
       <t xml:space="preserve"> 5K</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -188,47 +718,29 @@
       </rPr>
       <t xml:space="preserve"> 10K</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>IDR 30K</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>IDR 60K</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>IDR 250K</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>IDR 500K</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_asset_count|购买财富数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag|对应切页类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>cc_icon_jb01</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cc_icon_jb02</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cc_icon_jb03</t>
@@ -247,7 +759,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +781,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -296,8 +822,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,18 +869,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -340,17 +897,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,17 +929,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -646,281 +1286,3538 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="2"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="C8" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="1"/>
-    <col min="9" max="9" width="28.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.25" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.75" style="2"/>
+    <col min="2" max="4" width="19.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.125" style="20" customWidth="1"/>
+    <col min="6" max="8" width="19.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.125" style="2" customWidth="1"/>
+    <col min="16" max="18" width="14.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.75" style="2"/>
+    <col min="21" max="21" width="28.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="24.375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="16.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="19.25" style="2" customWidth="1"/>
+    <col min="27" max="27" width="21.25" style="2" customWidth="1"/>
+    <col min="28" max="28" width="19.25" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13" style="2" customWidth="1"/>
+    <col min="30" max="31" width="12.125" style="2" customWidth="1"/>
+    <col min="32" max="33" width="21.375" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="12">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA2" s="3"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2">
+        <v>60000000</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="12">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2">
+        <v>30000</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>3</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2">
+        <v>60000</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2">
+        <v>400000000</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="12">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>4</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2">
+        <v>250000</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="12">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>5</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2">
+        <v>500000</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="12">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>6</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA7" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AM949"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="6"/>
+    <col min="2" max="2" width="19.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="41.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="81.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="6" customWidth="1"/>
+    <col min="11" max="11" width="22" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="6" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="88.75" style="6" customWidth="1"/>
+    <col min="17" max="17" width="30.125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="40.5" style="6" customWidth="1"/>
+    <col min="19" max="19" width="46" style="6" customWidth="1"/>
+    <col min="20" max="21" width="30.125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="24.625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="30.125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="19.125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="20.125" style="6" customWidth="1"/>
+    <col min="26" max="27" width="22.875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="103.125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="22.875" style="6" customWidth="1"/>
+    <col min="30" max="30" width="22.75" style="6" customWidth="1"/>
+    <col min="31" max="31" width="24.375" style="6" customWidth="1"/>
+    <col min="32" max="32" width="16.75" style="6" customWidth="1"/>
+    <col min="33" max="34" width="12.125" style="6" customWidth="1"/>
+    <col min="35" max="36" width="21.375" style="6" customWidth="1"/>
+    <col min="37" max="37" width="13" style="6" customWidth="1"/>
+    <col min="38" max="38" width="19.375" style="6" customWidth="1"/>
+    <col min="39" max="39" width="21.5" style="6" customWidth="1"/>
+    <col min="40" max="16384" width="8.75" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="15"/>
+      <c r="J5" s="7"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="7"/>
+    </row>
+    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+    </row>
+    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+    </row>
+    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+    </row>
+    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+    </row>
+    <row r="11" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="W26" s="15"/>
+    </row>
+    <row r="27" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="W27" s="15"/>
+    </row>
+    <row r="28" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="W28" s="15"/>
+    </row>
+    <row r="29" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="W29" s="15"/>
+    </row>
+    <row r="30" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="W30" s="15"/>
+    </row>
+    <row r="31" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="W31" s="15"/>
+    </row>
+    <row r="32" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="W32" s="15"/>
+    </row>
+    <row r="33" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="W33" s="15"/>
+    </row>
+    <row r="34" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="W34" s="15"/>
+    </row>
+    <row r="35" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="W35" s="15"/>
+    </row>
+    <row r="36" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="W36" s="15"/>
+    </row>
+    <row r="37" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="W37" s="15"/>
+    </row>
+    <row r="38" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="W38" s="15"/>
+    </row>
+    <row r="39" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="W39" s="15"/>
+    </row>
+    <row r="40" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="W40" s="15"/>
+    </row>
+    <row r="41" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="W41" s="15"/>
+    </row>
+    <row r="42" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="W42" s="15"/>
+    </row>
+    <row r="43" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="W43" s="15"/>
+    </row>
+    <row r="44" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="W44" s="15"/>
+    </row>
+    <row r="45" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="W45" s="15"/>
+    </row>
+    <row r="46" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="W46" s="15"/>
+    </row>
+    <row r="47" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="W47" s="15"/>
+    </row>
+    <row r="48" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="W48" s="15"/>
+    </row>
+    <row r="49" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="W49" s="15"/>
+    </row>
+    <row r="50" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="W50" s="15"/>
+    </row>
+    <row r="51" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+    </row>
+    <row r="52" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+    </row>
+    <row r="53" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+    </row>
+    <row r="54" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="W58" s="15"/>
+    </row>
+    <row r="59" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="W59" s="15"/>
+    </row>
+    <row r="60" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="W60" s="15"/>
+    </row>
+    <row r="61" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="W61" s="15"/>
+    </row>
+    <row r="62" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="W62" s="15"/>
+    </row>
+    <row r="63" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="W63" s="15"/>
+    </row>
+    <row r="64" spans="7:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="W64" s="15"/>
+    </row>
+    <row r="65" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="W65" s="15"/>
+    </row>
+    <row r="66" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W66" s="15"/>
+      <c r="X66" s="7"/>
+      <c r="AC66" s="10"/>
+    </row>
+    <row r="67" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W67" s="15"/>
+      <c r="X67" s="7"/>
+    </row>
+    <row r="68" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W68" s="15"/>
+      <c r="X68" s="7"/>
+    </row>
+    <row r="69" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W69" s="15"/>
+      <c r="X69" s="7"/>
+    </row>
+    <row r="70" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W70" s="15"/>
+      <c r="X70" s="7"/>
+    </row>
+    <row r="71" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W71" s="15"/>
+      <c r="X71" s="7"/>
+    </row>
+    <row r="72" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W72" s="15"/>
+      <c r="X72" s="7"/>
+      <c r="AC72" s="10"/>
+    </row>
+    <row r="73" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W73" s="15"/>
+      <c r="X73" s="7"/>
+    </row>
+    <row r="74" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W74" s="15"/>
+      <c r="X74" s="7"/>
+    </row>
+    <row r="75" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W75" s="15"/>
+      <c r="X75" s="7"/>
+    </row>
+    <row r="76" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W76" s="15"/>
+      <c r="X76" s="7"/>
+    </row>
+    <row r="77" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W77" s="15"/>
+      <c r="X77" s="7"/>
+    </row>
+    <row r="78" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W78" s="15"/>
+      <c r="X78" s="7"/>
+      <c r="AC78" s="10"/>
+    </row>
+    <row r="79" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W79" s="15"/>
+      <c r="X79" s="7"/>
+      <c r="AC79" s="10"/>
+    </row>
+    <row r="80" spans="7:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W80" s="15"/>
+      <c r="X80" s="7"/>
+      <c r="AC80" s="10"/>
+    </row>
+    <row r="81" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W81" s="15"/>
+      <c r="X81" s="7"/>
+    </row>
+    <row r="82" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W82" s="15"/>
+      <c r="X82" s="7"/>
+    </row>
+    <row r="83" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X84" s="9"/>
+    </row>
+    <row r="85" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W85" s="15"/>
+    </row>
+    <row r="86" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="17:24" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W94" s="15"/>
+    </row>
+    <row r="95" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+    </row>
+    <row r="96" spans="17:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q101" s="7"/>
+    </row>
+    <row r="102" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q103" s="7"/>
+    </row>
+    <row r="104" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q106" s="7"/>
+    </row>
+    <row r="107" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+    </row>
+    <row r="110" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="17:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="23:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W128" s="15"/>
+      <c r="X128" s="7"/>
+    </row>
+    <row r="129" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W129" s="15"/>
+      <c r="X129" s="7"/>
+    </row>
+    <row r="130" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+    </row>
+    <row r="137" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+    </row>
+    <row r="138" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+    </row>
+    <row r="139" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+    </row>
+    <row r="140" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+    </row>
+    <row r="141" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+    </row>
+    <row r="142" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="7:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC153" s="15"/>
+    </row>
+    <row r="154" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC154" s="24"/>
+    </row>
+    <row r="155" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC155" s="24"/>
+    </row>
+    <row r="156" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC156" s="24"/>
+    </row>
+    <row r="157" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC157" s="24"/>
+    </row>
+    <row r="158" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="29:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G247" s="8"/>
+      <c r="H247" s="8"/>
+    </row>
+    <row r="248" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G248" s="8"/>
+      <c r="H248" s="8"/>
+    </row>
+    <row r="249" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G249" s="8"/>
+      <c r="H249" s="8"/>
+    </row>
+    <row r="250" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G250" s="8"/>
+      <c r="H250" s="8"/>
+    </row>
+    <row r="251" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" spans="4:24" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D273" s="12"/>
+      <c r="W273" s="15"/>
+      <c r="X273" s="7"/>
+    </row>
+    <row r="274" spans="4:24" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D274" s="12"/>
+    </row>
+    <row r="275" spans="4:24" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" spans="4:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" spans="4:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" spans="4:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" spans="4:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" spans="4:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" spans="4:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" spans="4:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" spans="4:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" spans="4:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" spans="4:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" spans="4:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" spans="4:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" spans="4:24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC340" s="10"/>
+    </row>
+    <row r="341" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q342" s="7"/>
+    </row>
+    <row r="343" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" spans="4:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" spans="4:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" spans="4:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" spans="4:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" spans="4:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" spans="4:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" spans="4:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" spans="4:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" spans="4:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q361" s="7"/>
+    </row>
+    <row r="362" spans="4:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q362" s="7"/>
+    </row>
+    <row r="363" spans="4:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q363" s="7"/>
+    </row>
+    <row r="364" spans="4:29" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB364" s="22"/>
+    </row>
+    <row r="365" spans="4:29" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q365" s="7"/>
+      <c r="AB365" s="22"/>
+    </row>
+    <row r="366" spans="4:29" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB366" s="22"/>
+    </row>
+    <row r="367" spans="4:29" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D367" s="12"/>
+    </row>
+    <row r="368" spans="4:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC368" s="10"/>
+    </row>
+    <row r="369" spans="7:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" spans="7:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q370" s="10"/>
+    </row>
+    <row r="371" spans="7:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" spans="7:17" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G372" s="23"/>
+      <c r="H372" s="23"/>
+    </row>
+    <row r="373" spans="7:17" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G373" s="23"/>
+      <c r="H373" s="23"/>
+    </row>
+    <row r="374" spans="7:17" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G374" s="23"/>
+      <c r="H374" s="23"/>
+    </row>
+    <row r="375" spans="7:17" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G375" s="23"/>
+      <c r="H375" s="23"/>
+    </row>
+    <row r="376" spans="7:17" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G376" s="23"/>
+      <c r="H376" s="23"/>
+    </row>
+    <row r="377" spans="7:17" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G377" s="23"/>
+      <c r="H377" s="23"/>
+    </row>
+    <row r="378" spans="7:17" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G378" s="23"/>
+      <c r="H378" s="23"/>
+    </row>
+    <row r="379" spans="7:17" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G379" s="23"/>
+      <c r="H379" s="23"/>
+    </row>
+    <row r="380" spans="7:17" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G380" s="23"/>
+      <c r="H380" s="23"/>
+    </row>
+    <row r="381" spans="7:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" spans="7:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" spans="7:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" spans="7:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T391" s="10"/>
+    </row>
+    <row r="392" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T392" s="10"/>
+    </row>
+    <row r="393" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T393" s="10"/>
+    </row>
+    <row r="394" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC394" s="10"/>
+    </row>
+    <row r="395" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" spans="20:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" spans="7:8" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G404" s="23"/>
+      <c r="H404" s="23"/>
+    </row>
+    <row r="405" spans="7:8" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G405" s="23"/>
+      <c r="H405" s="23"/>
+    </row>
+    <row r="406" spans="7:8" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G406" s="23"/>
+      <c r="H406" s="23"/>
+    </row>
+    <row r="407" spans="7:8" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G407" s="23"/>
+      <c r="H407" s="23"/>
+    </row>
+    <row r="408" spans="7:8" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G408" s="23"/>
+      <c r="H408" s="23"/>
+    </row>
+    <row r="409" spans="7:8" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G409" s="23"/>
+      <c r="H409" s="23"/>
+    </row>
+    <row r="410" spans="7:8" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G410" s="23"/>
+      <c r="H410" s="23"/>
+    </row>
+    <row r="411" spans="7:8" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G411" s="23"/>
+      <c r="H411" s="23"/>
+    </row>
+    <row r="412" spans="7:8" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G412" s="23"/>
+      <c r="H412" s="23"/>
+    </row>
+    <row r="413" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" spans="7:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" spans="24:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X484" s="12"/>
+      <c r="Y484" s="12"/>
+    </row>
+    <row r="485" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" spans="24:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W503" s="15"/>
+      <c r="X503" s="7"/>
+      <c r="AC503" s="10"/>
+    </row>
+    <row r="504" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="506" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="536" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="557" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="566" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="577" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="578" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="579" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="580" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="581" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="582" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="583" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="584" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="585" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="586" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="587" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="588" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="589" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="590" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W590" s="15"/>
+      <c r="X590" s="7"/>
+    </row>
+    <row r="591" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W591" s="15"/>
+      <c r="X591" s="7"/>
+      <c r="AC591" s="10"/>
+    </row>
+    <row r="592" spans="23:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W592" s="15"/>
+      <c r="X592" s="7"/>
+      <c r="AC592" s="10"/>
+    </row>
+    <row r="593" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="594" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="596" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W596" s="24"/>
+    </row>
+    <row r="597" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W597" s="24"/>
+    </row>
+    <row r="598" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W598" s="24"/>
+    </row>
+    <row r="599" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W599" s="24"/>
+    </row>
+    <row r="600" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W600" s="24"/>
+    </row>
+    <row r="601" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W601" s="24"/>
+    </row>
+    <row r="602" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="603" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="604" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="605" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="606" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="607" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" spans="23:23" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="609" spans="17:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="610" spans="17:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="611" spans="17:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="612" spans="17:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q612" s="7"/>
+    </row>
+    <row r="613" spans="17:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="614" spans="17:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="615" spans="17:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Z615" s="12"/>
+    </row>
+    <row r="616" spans="17:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Z616" s="12"/>
+    </row>
+    <row r="617" spans="17:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Z617" s="12"/>
+    </row>
+    <row r="618" spans="17:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Z618" s="12"/>
+    </row>
+    <row r="619" spans="17:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Z619" s="12"/>
+    </row>
+    <row r="620" spans="17:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Z620" s="12"/>
+    </row>
+    <row r="621" spans="17:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Z621" s="12"/>
+    </row>
+    <row r="622" spans="17:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Z622" s="12"/>
+    </row>
+    <row r="623" spans="17:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Z623" s="12"/>
+    </row>
+    <row r="624" spans="17:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Z624" s="12"/>
+    </row>
+    <row r="625" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Z625" s="12"/>
+    </row>
+    <row r="626" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Z626" s="12"/>
+    </row>
+    <row r="627" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X627" s="12"/>
+      <c r="Y627" s="12"/>
+      <c r="Z627" s="12"/>
+    </row>
+    <row r="628" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X628" s="12"/>
+      <c r="Y628" s="12"/>
+      <c r="Z628" s="12"/>
+    </row>
+    <row r="629" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X629" s="12"/>
+      <c r="Y629" s="12"/>
+      <c r="Z629" s="12"/>
+    </row>
+    <row r="630" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X630" s="12"/>
+      <c r="Y630" s="12"/>
+      <c r="Z630" s="12"/>
+    </row>
+    <row r="631" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X631" s="12"/>
+      <c r="Y631" s="12"/>
+      <c r="Z631" s="12"/>
+    </row>
+    <row r="632" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X632" s="12"/>
+      <c r="Y632" s="12"/>
+      <c r="Z632" s="12"/>
+    </row>
+    <row r="633" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X633" s="12"/>
+      <c r="Y633" s="12"/>
+      <c r="Z633" s="12"/>
+    </row>
+    <row r="634" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X634" s="12"/>
+      <c r="Y634" s="12"/>
+      <c r="Z634" s="12"/>
+    </row>
+    <row r="635" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X635" s="12"/>
+      <c r="Y635" s="12"/>
+      <c r="Z635" s="12"/>
+    </row>
+    <row r="636" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X636" s="12"/>
+      <c r="Y636" s="12"/>
+      <c r="Z636" s="12"/>
+    </row>
+    <row r="637" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X637" s="12"/>
+      <c r="Y637" s="12"/>
+      <c r="Z637" s="12"/>
+    </row>
+    <row r="638" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X638" s="12"/>
+      <c r="Y638" s="12"/>
+      <c r="Z638" s="12"/>
+    </row>
+    <row r="639" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X639" s="12"/>
+      <c r="Y639" s="12"/>
+    </row>
+    <row r="640" spans="24:26" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X640" s="12"/>
+      <c r="Y640" s="12"/>
+    </row>
+    <row r="641" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X641" s="12"/>
+      <c r="Y641" s="12"/>
+    </row>
+    <row r="642" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X642" s="12"/>
+      <c r="Y642" s="12"/>
+    </row>
+    <row r="643" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X643" s="12"/>
+      <c r="Y643" s="12"/>
+    </row>
+    <row r="644" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X644" s="12"/>
+      <c r="Y644" s="12"/>
+    </row>
+    <row r="645" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X645" s="12"/>
+      <c r="Y645" s="12"/>
+    </row>
+    <row r="646" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X646" s="12"/>
+      <c r="Y646" s="12"/>
+    </row>
+    <row r="647" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X647" s="12"/>
+      <c r="Y647" s="12"/>
+    </row>
+    <row r="648" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X648" s="12"/>
+      <c r="Y648" s="12"/>
+    </row>
+    <row r="649" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X649" s="12"/>
+      <c r="Y649" s="12"/>
+    </row>
+    <row r="650" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="X650" s="12"/>
+      <c r="Y650" s="12"/>
+    </row>
+    <row r="651" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W651" s="23"/>
+      <c r="X651" s="23"/>
+      <c r="Y651" s="23"/>
+    </row>
+    <row r="652" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W652" s="23"/>
+      <c r="X652" s="23"/>
+      <c r="Y652" s="23"/>
+    </row>
+    <row r="653" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W653" s="23"/>
+      <c r="X653" s="23"/>
+      <c r="Y653" s="23"/>
+    </row>
+    <row r="654" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W654" s="23"/>
+      <c r="X654" s="23"/>
+      <c r="Y654" s="23"/>
+    </row>
+    <row r="655" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W655" s="23"/>
+      <c r="X655" s="23"/>
+      <c r="Y655" s="23"/>
+    </row>
+    <row r="656" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W656" s="23"/>
+      <c r="X656" s="23"/>
+      <c r="Y656" s="23"/>
+    </row>
+    <row r="657" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W657" s="23"/>
+      <c r="X657" s="23"/>
+      <c r="Y657" s="23"/>
+    </row>
+    <row r="658" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W658" s="23"/>
+      <c r="X658" s="23"/>
+      <c r="Y658" s="23"/>
+    </row>
+    <row r="659" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W659" s="23"/>
+      <c r="X659" s="23"/>
+      <c r="Y659" s="23"/>
+    </row>
+    <row r="660" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W660" s="23"/>
+      <c r="X660" s="23"/>
+      <c r="Y660" s="23"/>
+    </row>
+    <row r="661" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W661" s="23"/>
+      <c r="X661" s="23"/>
+      <c r="Y661" s="23"/>
+    </row>
+    <row r="662" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W662" s="23"/>
+      <c r="X662" s="23"/>
+      <c r="Y662" s="23"/>
+    </row>
+    <row r="663" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W663" s="23"/>
+      <c r="X663" s="23"/>
+      <c r="Y663" s="23"/>
+    </row>
+    <row r="664" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W664" s="23"/>
+      <c r="X664" s="23"/>
+      <c r="Y664" s="23"/>
+    </row>
+    <row r="665" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W665" s="23"/>
+      <c r="X665" s="23"/>
+      <c r="Y665" s="23"/>
+    </row>
+    <row r="666" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W666" s="23"/>
+      <c r="X666" s="23"/>
+      <c r="Y666" s="23"/>
+    </row>
+    <row r="667" spans="23:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W667" s="23"/>
+      <c r="X667" s="23"/>
+      <c r="Y667" s="23"/>
+    </row>
+    <row r="668" spans="23:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="669" spans="23:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="670" spans="23:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="671" spans="23:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="672" spans="23:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="673" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="674" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="675" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="676" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="677" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="678" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="679" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="680" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="681" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="682" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="683" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="684" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="685" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="686" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="687" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="688" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="689" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="690" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="691" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="692" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="693" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="694" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="695" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="696" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="697" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="698" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="699" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="700" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="701" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="702" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="703" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="704" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="705" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="706" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="707" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="708" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="709" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="710" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="711" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="712" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="713" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="714" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="715" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="716" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="717" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="718" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="719" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="720" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="721" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="722" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="723" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="724" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="725" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="726" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="727" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="728" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="729" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="730" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="731" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="732" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="733" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="734" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="735" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="736" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="737" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="738" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="739" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="740" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="741" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="742" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="743" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="744" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="745" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="746" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="747" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="748" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="749" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="750" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="751" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="752" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="753" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="754" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="755" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="756" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="757" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="758" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="759" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="760" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="761" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="762" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="763" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="764" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="765" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="766" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="767" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="768" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="769" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="770" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="771" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="772" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="773" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="774" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="775" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="776" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="777" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="778" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="779" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="780" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="781" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="782" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="783" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="784" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="785" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="786" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="787" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="788" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="789" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="790" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="791" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="792" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="793" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="794" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="795" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="796" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="797" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="798" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="799" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="800" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="801" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="802" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="803" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="804" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="805" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="806" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="807" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="808" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="809" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="810" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="811" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="812" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="813" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="814" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="815" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="816" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="817" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="818" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="819" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="820" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="821" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="822" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="823" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="824" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="825" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="826" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="827" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="828" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="829" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="830" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="831" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="832" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="833" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="834" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="835" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H835" s="30"/>
+    </row>
+    <row r="836" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H836" s="30"/>
+    </row>
+    <row r="837" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H837" s="30"/>
+    </row>
+    <row r="838" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H838" s="30"/>
+    </row>
+    <row r="839" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H839" s="30"/>
+    </row>
+    <row r="840" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H840" s="30"/>
+    </row>
+    <row r="841" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H841" s="30"/>
+    </row>
+    <row r="842" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H842" s="30"/>
+    </row>
+    <row r="843" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H843" s="30"/>
+    </row>
+    <row r="844" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H844" s="30"/>
+    </row>
+    <row r="845" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H845" s="30"/>
+    </row>
+    <row r="846" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H846" s="30"/>
+    </row>
+    <row r="847" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q847" s="26"/>
+      <c r="W847" s="15"/>
+      <c r="X847" s="7"/>
+      <c r="AC847" s="10"/>
+    </row>
+    <row r="848" spans="8:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q848" s="26"/>
+      <c r="W848" s="15"/>
+      <c r="X848" s="7"/>
+      <c r="AC848" s="10"/>
+    </row>
+    <row r="849" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q849" s="26"/>
+      <c r="W849" s="15"/>
+      <c r="X849" s="7"/>
+      <c r="AC849" s="10"/>
+    </row>
+    <row r="850" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q850" s="10"/>
+    </row>
+    <row r="851" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q851" s="10"/>
+    </row>
+    <row r="852" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q852" s="10"/>
+    </row>
+    <row r="853" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q853" s="10"/>
+    </row>
+    <row r="854" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q854" s="10"/>
+    </row>
+    <row r="855" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q855" s="10"/>
+    </row>
+    <row r="856" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q856" s="10"/>
+    </row>
+    <row r="857" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q857" s="10"/>
+    </row>
+    <row r="858" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q858" s="10"/>
+    </row>
+    <row r="859" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q859" s="10"/>
+    </row>
+    <row r="860" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q860" s="10"/>
+    </row>
+    <row r="861" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q861" s="10"/>
+    </row>
+    <row r="862" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q862" s="10"/>
+    </row>
+    <row r="863" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q863" s="10"/>
+    </row>
+    <row r="864" spans="17:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q864" s="10"/>
+    </row>
+    <row r="865" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q865" s="10"/>
+    </row>
+    <row r="866" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q866" s="10"/>
+    </row>
+    <row r="867" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q867" s="10"/>
+    </row>
+    <row r="868" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q868" s="10"/>
+    </row>
+    <row r="869" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q869" s="10"/>
+    </row>
+    <row r="870" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q870" s="10"/>
+    </row>
+    <row r="871" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A871" s="5"/>
+      <c r="B871" s="5"/>
+      <c r="Q871" s="10"/>
+    </row>
+    <row r="872" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A872" s="5"/>
+      <c r="B872" s="5"/>
+      <c r="Q872" s="10"/>
+    </row>
+    <row r="873" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A873" s="5"/>
+      <c r="B873" s="5"/>
+      <c r="Q873" s="10"/>
+    </row>
+    <row r="874" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A874" s="5"/>
+      <c r="B874" s="5"/>
+      <c r="Q874" s="10"/>
+    </row>
+    <row r="875" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A875" s="5"/>
+      <c r="B875" s="5"/>
+      <c r="Q875" s="10"/>
+    </row>
+    <row r="876" spans="1:17" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A876" s="5"/>
+      <c r="B876" s="5"/>
+      <c r="Q876" s="10"/>
+    </row>
+    <row r="877" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A877" s="5"/>
+      <c r="B877" s="5"/>
+      <c r="Q877" s="10"/>
+    </row>
+    <row r="878" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A878" s="5"/>
+      <c r="B878" s="5"/>
+      <c r="Q878" s="10"/>
+    </row>
+    <row r="879" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A879" s="5"/>
+      <c r="B879" s="5"/>
+      <c r="Q879" s="10"/>
+    </row>
+    <row r="880" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A880" s="5"/>
+      <c r="B880" s="5"/>
+      <c r="Q880" s="10"/>
+    </row>
+    <row r="881" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A881" s="5"/>
+      <c r="B881" s="5"/>
+      <c r="Q881" s="10"/>
+    </row>
+    <row r="882" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A882" s="5"/>
+      <c r="B882" s="5"/>
+      <c r="Q882" s="10"/>
+    </row>
+    <row r="883" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A883" s="5"/>
+      <c r="B883" s="5"/>
+      <c r="Q883" s="10"/>
+    </row>
+    <row r="884" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A884" s="5"/>
+      <c r="B884" s="5"/>
+      <c r="Q884" s="10"/>
+    </row>
+    <row r="885" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A885" s="5"/>
+      <c r="B885" s="5"/>
+      <c r="Q885" s="10"/>
+    </row>
+    <row r="886" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A886" s="5"/>
+      <c r="B886" s="5"/>
+      <c r="Q886" s="10"/>
+    </row>
+    <row r="887" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A887" s="5"/>
+      <c r="B887" s="5"/>
+      <c r="Q887" s="10"/>
+    </row>
+    <row r="888" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A888" s="5"/>
+      <c r="B888" s="5"/>
+      <c r="Q888" s="10"/>
+    </row>
+    <row r="889" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A889" s="5"/>
+      <c r="B889" s="5"/>
+      <c r="Q889" s="10"/>
+    </row>
+    <row r="890" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A890" s="5"/>
+      <c r="B890" s="5"/>
+      <c r="Q890" s="10"/>
+    </row>
+    <row r="891" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A891" s="5"/>
+      <c r="B891" s="5"/>
+      <c r="Q891" s="10"/>
+    </row>
+    <row r="892" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q892" s="26"/>
+    </row>
+    <row r="893" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q893" s="26"/>
+    </row>
+    <row r="894" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q894" s="26"/>
+    </row>
+    <row r="895" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q895" s="26"/>
+    </row>
+    <row r="896" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="897" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="898" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="899" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="900" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="901" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="902" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="903" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="904" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="905" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="906" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="907" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="908" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q908" s="26"/>
+    </row>
+    <row r="909" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q909" s="26"/>
+    </row>
+    <row r="910" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q910" s="26"/>
+    </row>
+    <row r="911" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q911" s="26"/>
+    </row>
+    <row r="912" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q912" s="26"/>
+    </row>
+    <row r="913" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q913" s="26"/>
+    </row>
+    <row r="914" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q914" s="26"/>
+    </row>
+    <row r="915" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q915" s="26"/>
+    </row>
+    <row r="916" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q916" s="26"/>
+    </row>
+    <row r="917" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q917" s="26"/>
+    </row>
+    <row r="918" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q918" s="26"/>
+    </row>
+    <row r="919" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q919" s="26"/>
+    </row>
+    <row r="920" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q920" s="26"/>
+    </row>
+    <row r="921" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H921" s="30"/>
+    </row>
+    <row r="922" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H922" s="30"/>
+    </row>
+    <row r="923" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H923" s="30"/>
+    </row>
+    <row r="924" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H924" s="30"/>
+    </row>
+    <row r="925" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H925" s="30"/>
+    </row>
+    <row r="926" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H926" s="30"/>
+    </row>
+    <row r="927" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H927" s="30"/>
+    </row>
+    <row r="928" spans="8:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H928" s="30"/>
+    </row>
+    <row r="929" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H929" s="30"/>
+    </row>
+    <row r="930" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H930" s="30"/>
+    </row>
+    <row r="931" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H931" s="30"/>
+    </row>
+    <row r="932" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H932" s="30"/>
+    </row>
+    <row r="933" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="934" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="935" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="936" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="937" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="938" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="939" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="940" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="941" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="942" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="943" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="944" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="945" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="946" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="947" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="948" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="949" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <autoFilter ref="A1:AM614"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="68.875" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" s="13" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="19"/>
+    </row>
+    <row r="17" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="19"/>
+    </row>
+    <row r="18" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="19"/>
+    </row>
+    <row r="19" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="19"/>
+    </row>
+    <row r="20" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="19"/>
+    </row>
+    <row r="21" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="19"/>
+    </row>
+    <row r="26" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="19"/>
+    </row>
+    <row r="28" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="19"/>
+    </row>
+    <row r="30" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="19"/>
+    </row>
+    <row r="31" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="19"/>
+    </row>
+    <row r="32" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="19"/>
+    </row>
+    <row r="33" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="19"/>
+    </row>
+    <row r="34" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="19"/>
+    </row>
+    <row r="35" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="19"/>
+    </row>
+    <row r="36" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="19"/>
+    </row>
+    <row r="37" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="19"/>
+    </row>
+    <row r="38" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="19"/>
+    </row>
+    <row r="39" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="19"/>
+    </row>
+    <row r="40" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="19"/>
+    </row>
+    <row r="41" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="19"/>
+    </row>
+    <row r="42" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="19"/>
+    </row>
+    <row r="43" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="19"/>
+    </row>
+    <row r="44" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="19"/>
+    </row>
+    <row r="45" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="19"/>
+    </row>
+    <row r="46" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="19"/>
+    </row>
+    <row r="47" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="19"/>
+    </row>
+    <row r="48" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="19"/>
+    </row>
+    <row r="49" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="19"/>
+    </row>
+    <row r="50" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="19"/>
+    </row>
+    <row r="51" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="19"/>
+    </row>
+    <row r="52" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="19"/>
+    </row>
+    <row r="53" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="19"/>
+    </row>
+    <row r="54" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="19"/>
+    </row>
+    <row r="55" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="19"/>
+    </row>
+    <row r="56" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="19"/>
+    </row>
+    <row r="57" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="19"/>
+    </row>
+    <row r="58" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="19"/>
+    </row>
+    <row r="59" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="19"/>
+    </row>
+    <row r="60" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="19"/>
+    </row>
+    <row r="61" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="19"/>
+    </row>
+    <row r="62" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="19"/>
+    </row>
+    <row r="63" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="19"/>
+    </row>
+    <row r="64" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="19"/>
+    </row>
+    <row r="65" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="19"/>
+    </row>
+    <row r="66" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="19"/>
+    </row>
+    <row r="67" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="19"/>
+    </row>
+    <row r="68" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="19"/>
+    </row>
+    <row r="69" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="19"/>
+    </row>
+    <row r="70" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="19"/>
+    </row>
+    <row r="71" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="19"/>
+    </row>
+    <row r="72" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="19"/>
+    </row>
+    <row r="73" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="19"/>
+    </row>
+    <row r="74" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="19"/>
+    </row>
+    <row r="75" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="19"/>
+    </row>
+    <row r="76" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="19"/>
+    </row>
+    <row r="77" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="19"/>
+    </row>
+    <row r="78" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="19"/>
+    </row>
+    <row r="79" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="19"/>
+    </row>
+    <row r="80" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="19"/>
+    </row>
+    <row r="81" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="19"/>
+    </row>
+    <row r="82" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="19"/>
+    </row>
+    <row r="83" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="19"/>
+    </row>
+    <row r="84" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="19"/>
+    </row>
+    <row r="85" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="19"/>
+    </row>
+    <row r="86" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="19"/>
+    </row>
+    <row r="87" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="19"/>
+    </row>
+    <row r="88" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="19"/>
+    </row>
+    <row r="89" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="19"/>
+    </row>
+    <row r="90" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="19"/>
+    </row>
+    <row r="91" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="19"/>
+    </row>
+    <row r="92" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="19"/>
+    </row>
+    <row r="93" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="19"/>
+    </row>
+    <row r="94" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="19"/>
+    </row>
+    <row r="95" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="19"/>
+    </row>
+    <row r="96" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="19"/>
+    </row>
+    <row r="97" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="19"/>
+    </row>
+    <row r="98" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="19"/>
+    </row>
+    <row r="99" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="19"/>
+    </row>
+    <row r="100" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="19"/>
+    </row>
+    <row r="101" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="19"/>
+    </row>
+    <row r="102" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="19"/>
+    </row>
+    <row r="103" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="19"/>
+    </row>
+    <row r="104" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="19"/>
+    </row>
+    <row r="105" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="19"/>
+    </row>
+    <row r="106" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="19"/>
+    </row>
+    <row r="107" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="19"/>
+    </row>
+    <row r="108" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="19"/>
+    </row>
+    <row r="109" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="19"/>
+    </row>
+    <row r="110" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="19"/>
+    </row>
+    <row r="111" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="19"/>
+    </row>
+    <row r="112" spans="2:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="19"/>
+    </row>
+    <row r="113" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="19"/>
+    </row>
+    <row r="114" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="19"/>
+    </row>
+    <row r="115" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="19"/>
+    </row>
+    <row r="116" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="19"/>
+      <c r="B116" s="19"/>
+    </row>
+    <row r="117" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="19"/>
+      <c r="B117" s="19"/>
+    </row>
+    <row r="118" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="19"/>
+      <c r="B118" s="19"/>
+    </row>
+    <row r="119" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
+    </row>
+    <row r="120" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
+    </row>
+    <row r="121" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="19"/>
+      <c r="B121" s="19"/>
+    </row>
+    <row r="122" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
+    </row>
+    <row r="123" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
+    </row>
+    <row r="124" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+    </row>
+    <row r="125" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="19"/>
+      <c r="B125" s="19"/>
+    </row>
+    <row r="126" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="19"/>
+      <c r="B126" s="19"/>
+    </row>
+    <row r="127" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="19"/>
+      <c r="B127" s="19"/>
+    </row>
+    <row r="128" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
+    </row>
+    <row r="129" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="19"/>
+      <c r="B129" s="19"/>
+    </row>
+    <row r="130" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:AC26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="19.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="37.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.875" style="2" customWidth="1"/>
+    <col min="13" max="15" width="8.75" style="2"/>
+    <col min="16" max="16" width="24.375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.25" style="2" customWidth="1"/>
+    <col min="20" max="20" width="13" style="2" customWidth="1"/>
+    <col min="21" max="21" width="19.25" style="2" customWidth="1"/>
+    <col min="22" max="22" width="13" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.25" style="2" customWidth="1"/>
+    <col min="24" max="24" width="8.75" style="2"/>
+    <col min="25" max="26" width="12.125" style="2" customWidth="1"/>
+    <col min="27" max="28" width="21.375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="42.875" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="8.75" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U2" s="23"/>
+    </row>
+    <row r="3" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U3" s="23"/>
+    </row>
+    <row r="4" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="23"/>
+    </row>
+    <row r="10" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="23"/>
+    </row>
+    <row r="11" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="20"/>
+      <c r="T11" s="20"/>
+    </row>
+    <row r="12" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U18" s="23"/>
+    </row>
+    <row r="19" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U21" s="23"/>
+    </row>
+    <row r="22" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q22" s="23"/>
+    </row>
+    <row r="23" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q23" s="23"/>
+    </row>
+    <row r="24" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="23"/>
+      <c r="Q24" s="23"/>
+    </row>
+    <row r="25" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="5"/>
+      <c r="Q25" s="23"/>
+      <c r="T25" s="23"/>
+    </row>
+    <row r="26" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:X24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="27.375" customWidth="1"/>
+    <col min="8" max="8" width="30.375" customWidth="1"/>
+    <col min="9" max="9" width="24.375" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="14" max="14" width="19.375" customWidth="1"/>
+    <col min="17" max="17" width="16.375" customWidth="1"/>
+    <col min="18" max="18" width="17.875" customWidth="1"/>
+    <col min="19" max="19" width="19.25" customWidth="1"/>
+    <col min="21" max="21" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="18" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>30000000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>60000000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1">
-        <v>200000000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1">
-        <v>60000</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1">
-        <v>400000000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1">
-        <v>250000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2000000000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1">
-        <v>500000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4000000000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>37</v>
-      </c>
+    <row r="2" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="17"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="H5" s="17"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="12"/>
+    </row>
+    <row r="6" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="H6" s="17"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="12"/>
+    </row>
+    <row r="7" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="18"/>
+      <c r="G7" s="16"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+    </row>
+    <row r="8" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="V8" s="19"/>
+    </row>
+    <row r="9" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+    </row>
+    <row r="10" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="18"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+    </row>
+    <row r="11" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="18"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+    </row>
+    <row r="12" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="18"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+    </row>
+    <row r="13" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+    </row>
+    <row r="14" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="18"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+    </row>
+    <row r="15" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="18"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="18"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="2:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="18"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="2:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="18"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="2:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="18"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="2:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="V20" s="19"/>
+    </row>
+    <row r="21" spans="2:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="18"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="19"/>
+      <c r="Q21" s="25"/>
+      <c r="U21" s="19"/>
+    </row>
+    <row r="22" spans="2:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="18"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="19"/>
+      <c r="Q22" s="25"/>
+      <c r="U22" s="19"/>
+    </row>
+    <row r="23" spans="2:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="Q23" s="25"/>
+      <c r="U23" s="19"/>
+    </row>
+    <row r="24" spans="2:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="18"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="19"/>
+      <c r="Q24" s="25"/>
+      <c r="U24" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/shoping_config.xlsx
+++ b/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\多米诺表格Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="120">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -637,56 +637,6 @@
     <t>60M Koin</t>
   </si>
   <si>
-    <t>200M Koin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>400M Koin</t>
-  </si>
-  <si>
-    <t>2000M Koin</t>
-  </si>
-  <si>
-    <t>4000M Koin</t>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0M</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>60M</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>200M</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>400M</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000M</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000M</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>IDR</t>
     </r>
@@ -721,38 +671,96 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>IDR 30K</t>
+    <t>IDR 500K</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>IDR 60K</t>
+    <t>cc_icon_jb01</t>
+  </si>
+  <si>
+    <t>cc_icon_jb02</t>
+  </si>
+  <si>
+    <t>cc_icon_jb03</t>
+  </si>
+  <si>
+    <t>cc_icon_jb04</t>
+  </si>
+  <si>
+    <t>cc_icon_jb05</t>
+  </si>
+  <si>
+    <t>cc_icon_jb06</t>
+  </si>
+  <si>
+    <t>120M Koin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300M Koin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600M Koin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500M Koin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000M Koin</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>30M</t>
+  </si>
+  <si>
+    <t>60M</t>
+  </si>
+  <si>
+    <t>120M</t>
+  </si>
+  <si>
+    <t>300M</t>
+  </si>
+  <si>
+    <t>600M</t>
+  </si>
+  <si>
+    <t>1500M</t>
+  </si>
+  <si>
+    <t>3000M</t>
+  </si>
+  <si>
+    <t>IDR 20K</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDR 50K</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDR 100K</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>IDR 250K</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDR 500K</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc_icon_jb01</t>
-  </si>
-  <si>
-    <t>cc_icon_jb02</t>
-  </si>
-  <si>
-    <t>cc_icon_jb03</t>
-  </si>
-  <si>
-    <t>cc_icon_jb04</t>
-  </si>
-  <si>
-    <t>cc_icon_jb05</t>
-  </si>
-  <si>
-    <t>cc_icon_jb06</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1299,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1403,10 +1411,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1584,13 +1592,13 @@
         <v>93</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="AA2" s="3"/>
     </row>
@@ -1638,13 +1646,13 @@
         <v>94</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="AA3" s="3"/>
     </row>
@@ -1665,13 +1673,13 @@
         <v>40</v>
       </c>
       <c r="I4" s="2">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K4" s="2">
-        <v>200000000</v>
+        <v>120000000</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>41</v>
@@ -1689,16 +1697,16 @@
         <v>3</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="AA4" s="3"/>
     </row>
@@ -1719,13 +1727,13 @@
         <v>40</v>
       </c>
       <c r="I5" s="2">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K5" s="2">
-        <v>400000000</v>
+        <v>300000000</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>41</v>
@@ -1743,16 +1751,16 @@
         <v>4</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="AA5" s="3"/>
     </row>
@@ -1773,13 +1781,13 @@
         <v>40</v>
       </c>
       <c r="I6" s="2">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="2">
-        <v>2000000000</v>
+        <v>600000000</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>41</v>
@@ -1797,16 +1805,16 @@
         <v>5</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="AA6" s="3"/>
     </row>
@@ -1827,13 +1835,13 @@
         <v>40</v>
       </c>
       <c r="I7" s="2">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K7" s="2">
-        <v>4000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>41</v>
@@ -1851,18 +1859,71 @@
         <v>6</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2">
+        <v>500000</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="12">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
+        <v>7</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/shoping_config.xlsx
+++ b/shoping_config.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -671,26 +671,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>IDR 500K</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>cc_icon_jb01</t>
   </si>
   <si>
     <t>cc_icon_jb02</t>
-  </si>
-  <si>
-    <t>cc_icon_jb03</t>
-  </si>
-  <si>
-    <t>cc_icon_jb04</t>
-  </si>
-  <si>
-    <t>cc_icon_jb05</t>
-  </si>
-  <si>
-    <t>cc_icon_jb06</t>
   </si>
   <si>
     <t>120M Koin</t>
@@ -709,23 +693,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000M Koin</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>30M</t>
   </si>
   <si>
@@ -742,9 +709,6 @@
   </si>
   <si>
     <t>1500M</t>
-  </si>
-  <si>
-    <t>3000M</t>
   </si>
   <si>
     <t>IDR 20K</t>
@@ -760,6 +724,22 @@
   </si>
   <si>
     <t>IDR 250K</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_icon_jb03</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_icon_jb04</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_icon_jb05</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_icon_jb06</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1413,8 +1393,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1592,13 +1572,13 @@
         <v>93</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>95</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA2" s="3"/>
     </row>
@@ -1646,13 +1626,13 @@
         <v>94</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA3" s="3"/>
     </row>
@@ -1697,16 +1677,16 @@
         <v>3</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="AA4" s="3"/>
     </row>
@@ -1751,16 +1731,16 @@
         <v>4</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="AA5" s="3"/>
     </row>
@@ -1805,16 +1785,16 @@
         <v>5</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AA6" s="3"/>
     </row>
@@ -1859,71 +1839,28 @@
         <v>6</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="2">
-        <v>500000</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="2">
-        <v>3000000000</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="12">
-        <v>1</v>
-      </c>
-      <c r="S8" s="2">
-        <v>1</v>
-      </c>
-      <c r="T8" s="2">
-        <v>7</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="H8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="U8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/shoping_config.xlsx
+++ b/shoping_config.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="123">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -519,38 +519,38 @@
   </si>
   <si>
     <t>pay_title|支付标题，显示在支付渠道的购买确认页中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>item_id|物品ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>buy_limt|购买限制</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>buy_limt|购买限制</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>shop_gold_sum_desc|福卡兑换提示</t>
   </si>
   <si>
     <t>coupon_gift_id|优惠券礼包ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>pay_title|名字，标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>|说明</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>buy_asset_attribute|针对不可叠加道具的属性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -566,7 +566,7 @@
       </rPr>
       <t>（已废弃）</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -582,7 +582,7 @@
       </rPr>
       <t>（已废弃）</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -598,23 +598,23 @@
       </rPr>
       <t>（已废弃）</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>condi|权限</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>price|价格：印尼盾</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -631,7 +631,7 @@
       </rPr>
       <t>0M Koin</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>60M Koin</t>
@@ -651,7 +651,7 @@
       </rPr>
       <t xml:space="preserve"> 5K</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -668,7 +668,7 @@
       </rPr>
       <t xml:space="preserve"> 10K</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cc_icon_jb01</t>
@@ -678,19 +678,19 @@
   </si>
   <si>
     <t>120M Koin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>300M Koin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>600M Koin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1500M Koin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>30M</t>
@@ -712,46 +712,135 @@
   </si>
   <si>
     <t>IDR 20K</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IDR 50K</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IDR 100K</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IDR 250K</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cc_icon_jb03</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cc_icon_jb04</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cc_icon_jb05</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cc_icon_jb06</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dengan.domino.master1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dengan.domino.master3</t>
+  </si>
+  <si>
+    <t>dengan.domino.master5</t>
+  </si>
+  <si>
+    <r>
+      <t>dengan.domino.master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dengan.domino.master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dengan.domino.master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -901,41 +990,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -947,10 +1036,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -962,7 +1051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -971,31 +1060,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1382,7 +1471,7 @@
       <c r="C8" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1394,7 +1483,7 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1541,6 +1630,9 @@
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E2" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="H2" s="12" t="s">
         <v>40</v>
       </c>
@@ -1595,6 +1687,9 @@
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E3" s="23" t="s">
+        <v>120</v>
+      </c>
       <c r="H3" s="12" t="s">
         <v>40</v>
       </c>
@@ -1649,6 +1744,9 @@
       <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E4" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="H4" s="12" t="s">
         <v>40</v>
       </c>
@@ -1703,6 +1801,9 @@
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E5" s="23" t="s">
+        <v>121</v>
+      </c>
       <c r="H5" s="12" t="s">
         <v>40</v>
       </c>
@@ -1757,6 +1858,9 @@
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E6" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="H6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1810,6 +1914,9 @@
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>40</v>
@@ -1863,7 +1970,7 @@
       <c r="Z8" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3915,7 +4022,7 @@
     <row r="949" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:AM614"/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4344,7 +4451,7 @@
       <c r="B130" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4539,7 +4646,7 @@
     </row>
     <row r="26" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -4815,7 +4922,7 @@
       <c r="U24" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
